--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value796.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value796.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.472492299243685</v>
+        <v>1.520080089569092</v>
       </c>
       <c r="B1">
-        <v>3.107673885275653</v>
+        <v>2.776425361633301</v>
       </c>
       <c r="C1">
-        <v>2.631478328440036</v>
+        <v>1.781080365180969</v>
       </c>
       <c r="D1">
-        <v>2.158965641593316</v>
+        <v>1.089894413948059</v>
       </c>
       <c r="E1">
-        <v>1.417619488251093</v>
+        <v>0.5591490864753723</v>
       </c>
     </row>
   </sheetData>
